--- a/table/model.avg/bio_env_model.avg.xlsx
+++ b/table/model.avg/bio_env_model.avg.xlsx
@@ -415,28 +415,28 @@
         </is>
       </c>
       <c r="B2">
-        <v>1.116776571973539</v>
+        <v>1.116776571973542</v>
       </c>
       <c r="C2">
-        <v>-0.5290024554367054</v>
+        <v>-0.5290024554367059</v>
       </c>
       <c r="D2">
-        <v>-0.3832879076243542</v>
+        <v>-0.3832879076243548</v>
       </c>
       <c r="E2">
-        <v>0.2868477255399055</v>
+        <v>0.2868477255399058</v>
       </c>
       <c r="F2">
-        <v>-0.9447986319203737</v>
+        <v>-0.9447986319203749</v>
       </c>
       <c r="G2">
-        <v>0.2457871129412685</v>
+        <v>0.245787112941269</v>
       </c>
       <c r="H2">
-        <v>0.9951161940604668</v>
+        <v>0.9951161940604684</v>
       </c>
       <c r="I2">
-        <v>-0.0195004606791059</v>
+        <v>-0.01950046067910579</v>
       </c>
     </row>
     <row r="3">
@@ -446,28 +446,28 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.116776571973539</v>
+        <v>1.116776571973542</v>
       </c>
       <c r="C3">
-        <v>-0.9164853898105085</v>
+        <v>-0.9164853898105096</v>
       </c>
       <c r="D3">
-        <v>-0.8092985539342725</v>
+        <v>-0.8092985539342732</v>
       </c>
       <c r="E3">
-        <v>0.391823379937247</v>
+        <v>0.3918233799372472</v>
       </c>
       <c r="F3">
-        <v>-1.636843333275571</v>
+        <v>-1.636843333275574</v>
       </c>
       <c r="G3">
-        <v>0.5189705991820578</v>
+        <v>0.5189705991820585</v>
       </c>
       <c r="H3">
-        <v>1.72401742874212</v>
+        <v>1.724017428742123</v>
       </c>
       <c r="I3">
-        <v>-0.2033084486950326</v>
+        <v>-0.2033084486950327</v>
       </c>
     </row>
   </sheetData>
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4736050815376634</v>
+        <v>0.4736050815376638</v>
       </c>
     </row>
     <row r="3">
@@ -547,16 +547,16 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>-29.91268329659278</v>
+        <v>-29.91268329659277</v>
       </c>
       <c r="D3">
-        <v>66.65295280008211</v>
+        <v>66.6529528000821</v>
       </c>
       <c r="E3">
         <v>1.211117411212243</v>
       </c>
       <c r="F3">
-        <v>0.2584791692435073</v>
+        <v>0.2584791692435075</v>
       </c>
     </row>
     <row r="4">
@@ -572,13 +572,13 @@
         <v>-28.12961746043661</v>
       </c>
       <c r="D4">
-        <v>68.48145714309544</v>
+        <v>68.48145714309545</v>
       </c>
       <c r="E4">
-        <v>3.039621754225578</v>
+        <v>3.039621754225593</v>
       </c>
       <c r="F4">
-        <v>0.103602652833401</v>
+        <v>0.1036026528334004</v>
       </c>
     </row>
     <row r="5">
@@ -594,13 +594,13 @@
         <v>-30.90402931279741</v>
       </c>
       <c r="D5">
-        <v>68.63564483249137</v>
+        <v>68.63564483249138</v>
       </c>
       <c r="E5">
-        <v>3.193809443621504</v>
+        <v>3.193809443621518</v>
       </c>
       <c r="F5">
-        <v>0.0959156434682016</v>
+        <v>0.095915643468201</v>
       </c>
     </row>
     <row r="6">
@@ -613,16 +613,16 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>-32.45595592166236</v>
+        <v>-32.45595592166235</v>
       </c>
       <c r="D6">
-        <v>69.31191184332472</v>
+        <v>69.31191184332471</v>
       </c>
       <c r="E6">
-        <v>3.870076454454861</v>
+        <v>3.870076454454846</v>
       </c>
       <c r="F6">
-        <v>0.06839745291722675</v>
+        <v>0.06839745291722729</v>
       </c>
     </row>
   </sheetData>
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.7320842507811707</v>
+        <v>0.7320842507811713</v>
       </c>
     </row>
     <row r="3">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.5772077343710644</v>
+        <v>0.5772077343710642</v>
       </c>
     </row>
     <row r="4">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.5772077343710644</v>
+        <v>0.5772077343710642</v>
       </c>
     </row>
     <row r="5">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.5772077343710644</v>
+        <v>0.5772077343710642</v>
       </c>
     </row>
     <row r="6">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.4736050815376634</v>
+        <v>0.4736050815376638</v>
       </c>
     </row>
     <row r="7">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.4736050815376634</v>
+        <v>0.4736050815376638</v>
       </c>
     </row>
     <row r="8">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.0959156434682016</v>
+        <v>0.095915643468201</v>
       </c>
     </row>
   </sheetData>
@@ -772,16 +772,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>1.116776571973539</v>
+        <v>1.116776571973542</v>
       </c>
       <c r="C2">
-        <v>0.1009652781465936</v>
+        <v>0.1009652781465935</v>
       </c>
       <c r="D2">
         <v>0.1054074696037436</v>
       </c>
       <c r="E2">
-        <v>10.59485230194612</v>
+        <v>10.59485230194615</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.5290024554367054</v>
+        <v>-0.5290024554367059</v>
       </c>
       <c r="C3">
-        <v>0.5139655706728781</v>
+        <v>0.5139655706728787</v>
       </c>
       <c r="D3">
-        <v>0.5176165094570154</v>
+        <v>0.5176165094570161</v>
       </c>
       <c r="E3">
         <v>1.021996875624454</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.3832879076243542</v>
+        <v>-0.3832879076243548</v>
       </c>
       <c r="C4">
-        <v>0.4436167682561941</v>
+        <v>0.4436167682561944</v>
       </c>
       <c r="D4">
-        <v>0.4473739247291592</v>
+        <v>0.4473739247291596</v>
       </c>
       <c r="E4">
-        <v>0.8567506652436153</v>
+        <v>0.8567506652436159</v>
       </c>
       <c r="F4">
         <v>0.3915827</v>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.2868477255399055</v>
+        <v>0.2868477255399058</v>
       </c>
       <c r="C5">
         <v>0.2262423576089631</v>
@@ -847,7 +847,7 @@
         <v>0.2291359442715177</v>
       </c>
       <c r="E5">
-        <v>1.251866992984747</v>
+        <v>1.251866992984749</v>
       </c>
       <c r="F5">
         <v>0.2106183</v>
@@ -860,16 +860,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>-0.9447986319203737</v>
+        <v>-0.9447986319203749</v>
       </c>
       <c r="C6">
-        <v>0.9392431396738191</v>
+        <v>0.9392431396738206</v>
       </c>
       <c r="D6">
-        <v>0.9448044821879834</v>
+        <v>0.9448044821879847</v>
       </c>
       <c r="E6">
-        <v>0.9999938079595091</v>
+        <v>0.999993807959509</v>
       </c>
       <c r="F6">
         <v>0.3173135</v>
@@ -882,16 +882,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.2457871129412685</v>
+        <v>0.245787112941269</v>
       </c>
       <c r="C7">
-        <v>0.289708293537685</v>
+        <v>0.2897082935376853</v>
       </c>
       <c r="D7">
-        <v>0.2925879764876858</v>
+        <v>0.2925879764876861</v>
       </c>
       <c r="E7">
-        <v>0.8400451580128858</v>
+        <v>0.8400451580128867</v>
       </c>
       <c r="F7">
         <v>0.4008831</v>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.9951161940604668</v>
+        <v>0.9951161940604684</v>
       </c>
       <c r="C8">
-        <v>1.031053928199187</v>
+        <v>1.031053928199189</v>
       </c>
       <c r="D8">
-        <v>1.037701317059904</v>
+        <v>1.037701317059906</v>
       </c>
       <c r="E8">
-        <v>0.95896206133756</v>
+        <v>0.9589620613375603</v>
       </c>
       <c r="F8">
         <v>0.3375779</v>
@@ -926,16 +926,16 @@
         </is>
       </c>
       <c r="B9">
-        <v>-0.0195004606791059</v>
+        <v>-0.01950046067910579</v>
       </c>
       <c r="C9">
-        <v>0.06986503633560215</v>
+        <v>0.06986503633560198</v>
       </c>
       <c r="D9">
-        <v>0.07062949175876329</v>
+        <v>0.07062949175876312</v>
       </c>
       <c r="E9">
-        <v>0.2760951578939601</v>
+        <v>0.2760951578939591</v>
       </c>
       <c r="F9">
         <v>0.782475</v>
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>1.116776571973539</v>
+        <v>1.116776571973542</v>
       </c>
       <c r="C2">
-        <v>0.1009652781465936</v>
+        <v>0.1009652781465935</v>
       </c>
       <c r="D2">
         <v>0.1054074696037436</v>
       </c>
       <c r="E2">
-        <v>10.59485230194612</v>
+        <v>10.59485230194615</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.9164853898105085</v>
+        <v>-0.9164853898105096</v>
       </c>
       <c r="C3">
-        <v>0.3202032637619604</v>
+        <v>0.3202032637619606</v>
       </c>
       <c r="D3">
-        <v>0.3302348637824052</v>
+        <v>0.3302348637824054</v>
       </c>
       <c r="E3">
-        <v>2.775253282810228</v>
+        <v>2.77525328281023</v>
       </c>
       <c r="F3">
         <v>0.00551587</v>
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.8092985539342725</v>
+        <v>-0.8092985539342732</v>
       </c>
       <c r="C4">
-        <v>0.2660028047353479</v>
+        <v>0.266002804735348</v>
       </c>
       <c r="D4">
-        <v>0.278972777157123</v>
+        <v>0.2789727771571232</v>
       </c>
       <c r="E4">
-        <v>2.900994721353974</v>
+        <v>2.900994721353975</v>
       </c>
       <c r="F4">
         <v>0.0037198</v>
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.391823379937247</v>
+        <v>0.3918233799372472</v>
       </c>
       <c r="C5">
         <v>0.1696635671918491</v>
@@ -1068,7 +1068,7 @@
         <v>0.1748874594946938</v>
       </c>
       <c r="E5">
-        <v>2.240431538483954</v>
+        <v>2.240431538483955</v>
       </c>
       <c r="F5">
         <v>0.02506292</v>
@@ -1081,16 +1081,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>-1.636843333275571</v>
+        <v>-1.636843333275574</v>
       </c>
       <c r="C6">
-        <v>0.6289555752607973</v>
+        <v>0.6289555752607978</v>
       </c>
       <c r="D6">
-        <v>0.6432244850805743</v>
+        <v>0.6432244850805747</v>
       </c>
       <c r="E6">
-        <v>2.544746618391758</v>
+        <v>2.544746618391761</v>
       </c>
       <c r="F6">
         <v>0.01093571</v>
@@ -1103,16 +1103,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.5189705991820578</v>
+        <v>0.5189705991820585</v>
       </c>
       <c r="C7">
-        <v>0.1882627215088311</v>
+        <v>0.1882627215088312</v>
       </c>
       <c r="D7">
-        <v>0.1974421822609358</v>
+        <v>0.1974421822609359</v>
       </c>
       <c r="E7">
-        <v>2.628468715444992</v>
+        <v>2.628468715444994</v>
       </c>
       <c r="F7">
         <v>0.008577019999999999</v>
@@ -1125,16 +1125,16 @@
         </is>
       </c>
       <c r="B8">
-        <v>1.72401742874212</v>
+        <v>1.724017428742123</v>
       </c>
       <c r="C8">
-        <v>0.7649256968482282</v>
+        <v>0.7649256968482284</v>
       </c>
       <c r="D8">
-        <v>0.7803435496109323</v>
+        <v>0.7803435496109326</v>
       </c>
       <c r="E8">
-        <v>2.209305670049671</v>
+        <v>2.209305670049674</v>
       </c>
       <c r="F8">
         <v>0.02715339</v>
@@ -1147,10 +1147,10 @@
         </is>
       </c>
       <c r="B9">
-        <v>-0.2033084486950326</v>
+        <v>-0.2033084486950327</v>
       </c>
       <c r="C9">
-        <v>0.1162756854522531</v>
+        <v>0.1162756854522532</v>
       </c>
       <c r="D9">
         <v>0.120994990642382</v>
